--- a/parrain.xlsx
+++ b/parrain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SekouDRAME\Desktop\DELL\python_dell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SekouDRAME\Desktop\DELL\python_dell\.venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1869282-9850-4BF6-BCB0-265721D37F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08BED6-8551-4BCA-BB03-8E1A7331C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{97A0AC06-18B3-47A9-8257-F3ECB8D7C3CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{97A0AC06-18B3-47A9-8257-F3ECB8D7C3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Shiny" sheetId="4" r:id="rId1"/>
@@ -2921,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283E239-E62E-49C9-8878-6285A701EB20}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3998,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6083F188-A1DE-4B07-B091-452A33D8C3AD}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
